--- a/new_art.xlsx
+++ b/new_art.xlsx
@@ -475,60 +475,60 @@
     <col width="1" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8.5" customHeight="1"/>
-    <row r="2" ht="8.5" customHeight="1"/>
-    <row r="3" ht="8.5" customHeight="1"/>
-    <row r="4" ht="8.5" customHeight="1"/>
-    <row r="5" ht="8.5" customHeight="1"/>
-    <row r="6" ht="8.5" customHeight="1"/>
-    <row r="7" ht="8.5" customHeight="1"/>
-    <row r="8" ht="8.5" customHeight="1"/>
-    <row r="9" ht="8.5" customHeight="1"/>
-    <row r="10" ht="8.5" customHeight="1"/>
-    <row r="11" ht="8.5" customHeight="1"/>
-    <row r="12" ht="8.5" customHeight="1"/>
-    <row r="13" ht="8.5" customHeight="1"/>
-    <row r="14" ht="8.5" customHeight="1"/>
-    <row r="15" ht="8.5" customHeight="1"/>
-    <row r="16" ht="8.5" customHeight="1"/>
-    <row r="17" ht="8.5" customHeight="1"/>
-    <row r="18" ht="8.5" customHeight="1"/>
-    <row r="19" ht="8.5" customHeight="1"/>
-    <row r="20" ht="8.5" customHeight="1"/>
-    <row r="21" ht="8.5" customHeight="1"/>
-    <row r="22" ht="8.5" customHeight="1"/>
-    <row r="23" ht="8.5" customHeight="1"/>
-    <row r="24" ht="8.5" customHeight="1"/>
-    <row r="25" ht="8.5" customHeight="1"/>
-    <row r="26" ht="8.5" customHeight="1"/>
-    <row r="27" ht="8.5" customHeight="1"/>
-    <row r="28" ht="8.5" customHeight="1"/>
-    <row r="29" ht="8.5" customHeight="1"/>
-    <row r="30" ht="8.5" customHeight="1"/>
-    <row r="31" ht="8.5" customHeight="1"/>
-    <row r="32" ht="8.5" customHeight="1"/>
-    <row r="33" ht="8.5" customHeight="1"/>
-    <row r="34" ht="8.5" customHeight="1"/>
-    <row r="35" ht="8.5" customHeight="1"/>
-    <row r="36" ht="8.5" customHeight="1"/>
-    <row r="37" ht="8.5" customHeight="1"/>
-    <row r="38" ht="8.5" customHeight="1"/>
-    <row r="39" ht="8.5" customHeight="1"/>
-    <row r="40" ht="8.5" customHeight="1"/>
-    <row r="41" ht="8.5" customHeight="1"/>
-    <row r="42" ht="8.5" customHeight="1"/>
-    <row r="43" ht="8.5" customHeight="1"/>
-    <row r="44" ht="8.5" customHeight="1"/>
-    <row r="45" ht="8.5" customHeight="1"/>
-    <row r="46" ht="8.5" customHeight="1"/>
-    <row r="47" ht="8.5" customHeight="1"/>
-    <row r="48" ht="8.5" customHeight="1"/>
-    <row r="49" ht="8.5" customHeight="1"/>
-    <row r="50" ht="8.5" customHeight="1"/>
-    <row r="51" ht="8.5" customHeight="1"/>
-    <row r="52" ht="8.5" customHeight="1"/>
-    <row r="53" ht="8.5" customHeight="1"/>
-    <row r="54" ht="8.5" customHeight="1"/>
+    <row r="1" ht="6" customHeight="1"/>
+    <row r="2" ht="6" customHeight="1"/>
+    <row r="3" ht="6" customHeight="1"/>
+    <row r="4" ht="6" customHeight="1"/>
+    <row r="5" ht="6" customHeight="1"/>
+    <row r="6" ht="6" customHeight="1"/>
+    <row r="7" ht="6" customHeight="1"/>
+    <row r="8" ht="6" customHeight="1"/>
+    <row r="9" ht="6" customHeight="1"/>
+    <row r="10" ht="6" customHeight="1"/>
+    <row r="11" ht="6" customHeight="1"/>
+    <row r="12" ht="6" customHeight="1"/>
+    <row r="13" ht="6" customHeight="1"/>
+    <row r="14" ht="6" customHeight="1"/>
+    <row r="15" ht="6" customHeight="1"/>
+    <row r="16" ht="6" customHeight="1"/>
+    <row r="17" ht="6" customHeight="1"/>
+    <row r="18" ht="6" customHeight="1"/>
+    <row r="19" ht="6" customHeight="1"/>
+    <row r="20" ht="6" customHeight="1"/>
+    <row r="21" ht="6" customHeight="1"/>
+    <row r="22" ht="6" customHeight="1"/>
+    <row r="23" ht="6" customHeight="1"/>
+    <row r="24" ht="6" customHeight="1"/>
+    <row r="25" ht="6" customHeight="1"/>
+    <row r="26" ht="6" customHeight="1"/>
+    <row r="27" ht="6" customHeight="1"/>
+    <row r="28" ht="6" customHeight="1"/>
+    <row r="29" ht="6" customHeight="1"/>
+    <row r="30" ht="6" customHeight="1"/>
+    <row r="31" ht="6" customHeight="1"/>
+    <row r="32" ht="6" customHeight="1"/>
+    <row r="33" ht="6" customHeight="1"/>
+    <row r="34" ht="6" customHeight="1"/>
+    <row r="35" ht="6" customHeight="1"/>
+    <row r="36" ht="6" customHeight="1"/>
+    <row r="37" ht="6" customHeight="1"/>
+    <row r="38" ht="6" customHeight="1"/>
+    <row r="39" ht="6" customHeight="1"/>
+    <row r="40" ht="6" customHeight="1"/>
+    <row r="41" ht="6" customHeight="1"/>
+    <row r="42" ht="6" customHeight="1"/>
+    <row r="43" ht="6" customHeight="1"/>
+    <row r="44" ht="6" customHeight="1"/>
+    <row r="45" ht="6" customHeight="1"/>
+    <row r="46" ht="6" customHeight="1"/>
+    <row r="47" ht="6" customHeight="1"/>
+    <row r="48" ht="6" customHeight="1"/>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="6" customHeight="1"/>
+    <row r="51" ht="6" customHeight="1"/>
+    <row r="52" ht="6" customHeight="1"/>
+    <row r="53" ht="6" customHeight="1"/>
+    <row r="54" ht="6" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
